--- a/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
+++ b/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\GroceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\Automation1\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD6E82-3E4F-4FC3-A791-AF31D26AD815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D8547-834B-4DB3-B1DF-3E291DC00F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14916" yWindow="1284" windowWidth="7164" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
+++ b/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\Automation1\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D8547-834B-4DB3-B1DF-3E291DC00F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A029F-0234-49D4-8D73-819635B86472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14916" yWindow="1284" windowWidth="7164" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Surabhi</t>
+  </si>
+  <si>
+    <t>Surabhisathi</t>
+  </si>
+  <si>
+    <t>qwert</t>
+  </si>
+  <si>
+    <t>poiu</t>
   </si>
 </sst>
 </file>
@@ -348,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,6 +400,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
+++ b/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\Automation1\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A029F-0234-49D4-8D73-819635B86472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE4457-B72B-49B8-B390-610549CA619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14916" yWindow="1284" windowWidth="7164" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
+    <sheet name="NewsPage" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>poiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market Prize Dropped</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +384,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -400,23 +406,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E882E09-1750-434B-B1F0-82E6BE0A020D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E66866-0E2F-439F-95CC-DD62309C1C72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307856A3-CD5B-45F6-AEA9-2C981763D0F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
+++ b/GroceryApplication/src/test/resources/testdata Grocery Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\Automation1\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE4457-B72B-49B8-B390-610549CA619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4774D-6B07-4DCB-A965-A460F7652482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14916" yWindow="1284" windowWidth="7164" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14916" yWindow="1284" windowWidth="7164" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>admin</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Market Prize Dropped</t>
+  </si>
+  <si>
+    <t>Ammu</t>
+  </si>
+  <si>
+    <t>katui</t>
   </si>
 </sst>
 </file>
@@ -368,9 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E882E09-1750-434B-B1F0-82E6BE0A020D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +439,14 @@
       </c>
       <c r="B2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
